--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_186.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_186.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,696 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_187</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(105.28, 122.26)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(10.56, 16.4)]</t>
+          <t>[('0:00:17.900000', '0:01:52.420000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:16.380000', '0:01:35.260000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(10.1, 63.44)]</t>
+          <t>[['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(13.08, 74.3)]</t>
+          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.98, 6.3)]</t>
+          <t>[('0:01:10.380000', '0:01:30.980000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2113636363636364</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(6.74, 12.16)]</t>
+          <t>[('0:01:19.420000', '0:01:26.020000'), ('0:00:13.980000', '0:00:21.500000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>[('0:00:09.100000', '0:00:13.860000'), ('0:00:00.780000', '0:00:05.980000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(23.14, 32.76)]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(53.28, 65.12)]</t>
+          <t>[('0:01:37.940000', '0:01:48.300000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:23.760000', '0:01:32.660000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(16.72, 26.46)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(47.3, 50.04)]</t>
+          <t>[('0:00:08.200000', '0:00:30.680000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:36.040000', '0:00:51.460000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(7.7, 12.06)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[('0:00:32.980000', '0:00:35.260000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:38.620000', '0:00:44.060000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min/A', 'A:min'], ['A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(99.6, 111.62), (46.52, 48.94)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(28.14, 36.1), (83.1, 90.02)]</t>
+          <t>[('0:00:12.780000', '0:00:16.740000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:35.820000', '0:00:37.760000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(41.78, 56.28)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(9.6, 32.34)]</t>
+          <t>[('0:01:03.100000', '0:01:04.320000'), ('0:01:01.480000', '0:01:03.580000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.260000', '0:00:07.340000'), ('0:00:52.740000', '0:01:00.860000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(3.9, 7.72)]</t>
+          <t>[('0:01:00.040000', '0:01:07.080000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(36.82, 38.82)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[('0:00:24.860000', '0:00:52.580000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>[('0:01:47.100000', '0:01:49.300000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1064102564102564</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.465952, 5.272756)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(17.34, 24.4)]</t>
+          <t>[('0:00:00.300000', '0:00:20.700000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>[('0:00:02.360000', '0:00:24.960000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(37.54, 42.72)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(32.98, 35.26)]</t>
+          <t>[('0:00:15.260000', '0:00:45.460000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2528735632183908</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(118.4, 122.36)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(5.20815, 14.983242)]</t>
+          <t>[('0:00:00.380000', '0:02:22.380000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:01.920000', '0:02:29.880000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_139</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1503759398496241</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_116</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_46</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'A']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(168.742562, 174.9539)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(117.860861, 126.243265)]</t>
+          <t>[('0:00:08.440000', '0:02:12.720000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(0.36, 7.14)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(39.84, 47.28)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:10.360000', '0:01:59')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
